--- a/hike_yqt/config.xlsx
+++ b/hike_yqt/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="383"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="383"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>舆情通用户名</t>
   </si>
@@ -36,16 +36,13 @@
     <t>超级鹰打码平台softid</t>
   </si>
   <si>
-    <t>zdyousu</t>
+    <t>lsyousu</t>
   </si>
   <si>
-    <t>YQT654321abc</t>
+    <t>33221100aA</t>
   </si>
   <si>
     <t>huoxingren</t>
-  </si>
-  <si>
-    <t>33221100aA</t>
   </si>
   <si>
     <t>开始时间</t>
@@ -84,22 +81,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,14 +118,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -122,36 +125,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,14 +140,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,6 +165,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,6 +185,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -211,9 +201,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +211,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,138 +233,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -375,48 +414,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,21 +424,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,6 +438,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,41 +495,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -527,6 +509,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -535,10 +532,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,133 +544,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,7 +1035,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1080,7 +1077,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>913444</v>
@@ -1088,29 +1085,33 @@
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:3">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>44284.7916666667</v>
+        <v>44292.375</v>
       </c>
       <c r="B7" s="2">
-        <v>44284.9999884259</v>
+        <v>44292.4999884259</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="2">
+        <v>44292.5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44293</v>
+      </c>
       <c r="C8">
         <v>3</v>
       </c>
